--- a/PINKannotationschema.xlsx
+++ b/PINKannotationschema.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef.sharepoint.com/teams/work-25883/Delte dokumenter/Work/WP4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CDAF229-CE8D-41D5-8249-B24FAA714ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{6CDAF229-CE8D-41D5-8249-B24FAA714ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F53E45F-D13E-4AF7-849A-0501AA35CCB5}"/>
   <bookViews>
-    <workbookView xWindow="44508" yWindow="1104" windowWidth="31608" windowHeight="14280" xr2:uid="{0BACD2F8-7B2E-48A9-8B72-52AA9319C627}"/>
+    <workbookView xWindow="20760" yWindow="525" windowWidth="26640" windowHeight="19395" activeTab="1" xr2:uid="{0BACD2F8-7B2E-48A9-8B72-52AA9319C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
-    <sheet name="Tools" sheetId="2" r:id="rId2"/>
-    <sheet name="Processes.Activities" sheetId="3" r:id="rId3"/>
+    <sheet name="Method" sheetId="2" r:id="rId2"/>
+    <sheet name="Processes&amp;Activities" sheetId="3" r:id="rId3"/>
+    <sheet name="Datasetypes" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +37,232 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3DC68221-A2F8-483A-B3B6-FE972893C5E3}</author>
+    <author>tc={9137136B-9BC8-471A-B200-2EA2E7A3E4AF}</author>
+    <author>tc={5D5DF385-D5EB-48F5-A5CE-DFF6A74296CA}</author>
+    <author>tc={D844F09D-7C07-4893-B57E-52C3F6A5D60F}</author>
+    <author>tc={830E4230-762D-4CE3-A6F0-0FF397030CD2}</author>
+    <author>tc={8EE7610C-E999-45F5-A9A9-3367E4AF6B18}</author>
+    <author>tc={DD6BA14D-A867-4425-9A15-A81CC1D0A5CB}</author>
+    <author>tc={79276DE3-444C-4EE2-B4DB-3C29B2EE9CD5}</author>
+    <author>tc={075E81C9-FCEC-4A30-BD32-6CD7A45A52E0}</author>
+    <author>tc={3AD6D853-B413-4D8F-9CC8-1AC251E67C3F}</author>
+    <author>tc={7F6C6FB6-FC98-4A05-BE14-8935E191D0A1}</author>
+    <author>tc={7D6EF6D9-DA83-4B2B-9C6F-3C06F31029A8}</author>
+    <author>tc={310925FA-32DC-427A-A594-2292BEE25A8D}</author>
+    <author>tc={19BE8BE9-4EAD-42AA-B99A-6C43EB4E0E34}</author>
+    <author>tc={11EC8B67-483E-4E3E-9B6A-DC45A0BA5C0B}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3DC68221-A2F8-483A-B3B6-FE972893C5E3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Internal identifier if you have one.
+This can be a unique id in the form of an IRI. Otherwise leave empty.</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{9137136B-9BC8-471A-B200-2EA2E7A3E4AF}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This will eventually be a class in an ontology. For now please add a name that you feel covers what type of data this is. Can be left as the most generic dcat:dataset for now. Examples are:
+SEMimage
+CrystalStructure
+</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{5D5DF385-D5EB-48F5-A5CE-DFF6A74296CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A string of your choice.</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{D844F09D-7C07-4893-B57E-52C3F6A5D60F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A sentence or two…</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{830E4230-762D-4CE3-A6F0-0FF397030CD2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The URL that you can download directly if it exists. This is unique for this dataset.
+Either accessURL or accessURL are mandatory.</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="5" shapeId="0" xr:uid="{8EE7610C-E999-45F5-A9A9-3367E4AF6B18}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The URL from where you can access the dataset, i.e. by a query there. Several datasets can share the same accessURL.
+Either accessURL or accessURL are mandatory.</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="6" shapeId="0" xr:uid="{DD6BA14D-A867-4425-9A15-A81CC1D0A5CB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    One of:  “Confidential, Non_public, public, restricted, sensitive”. 
+you can add the prefix if you want, e,g,
+ http://publications.europa.eu/resource/authority/access-right/CONFIDENTIAL.
+For further information about the EU terminology: https://op.europa.eu/en/web/eu-vocabularies/concept-scheme/-/resource?uri=http://publications.europa.eu/resource/authority/access-right</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="7" shapeId="0" xr:uid="{79276DE3-444C-4EE2-B4DB-3C29B2EE9CD5}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All datasetsshouls have a license. A list of possible licenses can be found here:
+https://opensource.org/licenses-old/category
+https://creativecommons.org/share-your-work/cclicenses/
+This will become mandatory during the project. </t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="8" shapeId="0" xr:uid="{075E81C9-FCEC-4A30-BD32-6CD7A45A52E0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Date of creation of the data. Mandatory.</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="9" shapeId="0" xr:uid="{3AD6D853-B413-4D8F-9CC8-1AC251E67C3F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Date of modification of the dataset, if applicable.</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="10" shapeId="0" xr:uid="{7F6C6FB6-FC98-4A05-BE14-8935E191D0A1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A version number, Typically 1.0.0</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="11" shapeId="0" xr:uid="{7D6EF6D9-DA83-4B2B-9C6F-3C06F31029A8}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The method used to generate this dataset. Could be and experimental setup or a software or a model or an algorithm.
+Here, it is most relevant to refer to (PINK) models that are documented in the model tab. But you can start with giving the name of the model that was used to generate this dataset. </t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="12" shapeId="0" xr:uid="{310925FA-32DC-427A-A594-2292BEE25A8D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Input to the experiment/model/algorithm that generated the current dataset.
+Should refer to an actual sample/dataset or similar.</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="13" shapeId="0" xr:uid="{19BE8BE9-4EAD-42AA-B99A-6C43EB4E0E34}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Comma-separated words .
+</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="14" shapeId="0" xr:uid="{11EC8B67-483E-4E3E-9B6A-DC45A0BA5C0B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    One of "functionality", "safety", "environmental sustainability", "social sustainability", "costing"</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={72170D1E-BEFC-40EF-B131-07BE5D972176}</author>
+    <author>tc={5623D650-33C0-4B48-B342-FEF20D0FFBB6}</author>
+    <author>tc={BFE67C0E-8C8A-4661-8A42-BEBE7E1FD400}</author>
+    <author>tc={04F17FF0-9455-4B82-B22A-77FAA036EBDE}</author>
+    <author>tc={25EAF71E-19E8-4BB9-9D43-0E6209E6211F}</author>
+    <author>tc={4ECAC48F-403E-49AD-93CE-640C9F4E9B04}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{72170D1E-BEFC-40EF-B131-07BE5D972176}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Internal identifier if you have one.
+This can be a unique id in the form of an IRI. Otherwise leave empty.</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{5623D650-33C0-4B48-B342-FEF20D0FFBB6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A string of your choice.</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{BFE67C0E-8C8A-4661-8A42-BEBE7E1FD400}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A sentence or two…</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="3" shapeId="0" xr:uid="{04F17FF0-9455-4B82-B22A-77FAA036EBDE}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    URL to documentation
+</t>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="4" shapeId="0" xr:uid="{25EAF71E-19E8-4BB9-9D43-0E6209E6211F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    categorisation according to PINK tiers</t>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="5" shapeId="0" xr:uid="{4ECAC48F-403E-49AD-93CE-640C9F4E9B04}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Please add the type of datasets</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>@id</t>
   </si>
@@ -47,24 +273,12 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
-    <t>distribution</t>
-  </si>
-  <si>
-    <t>accessURL</t>
-  </si>
-  <si>
     <t xml:space="preserve"> @type</t>
   </si>
   <si>
-    <t>modified</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
@@ -77,24 +291,12 @@
     <t>license</t>
   </si>
   <si>
-    <t>distribution.downloadURL?</t>
-  </si>
-  <si>
-    <t>landingPage</t>
-  </si>
-  <si>
-    <t>Description and IRI/Range not aligned?</t>
-  </si>
-  <si>
     <t>hasAPI</t>
   </si>
   <si>
     <t>theme</t>
   </si>
   <si>
-    <t>Data/model classification?</t>
-  </si>
-  <si>
     <t>ssbdCategory</t>
   </si>
   <si>
@@ -119,9 +321,6 @@
     <t>output</t>
   </si>
   <si>
-    <t>wasGeneratedBy</t>
-  </si>
-  <si>
     <t>wasInformedBy</t>
   </si>
   <si>
@@ -129,13 +328,61 @@
   </si>
   <si>
     <t>wasDerivedFrom</t>
+  </si>
+  <si>
+    <t>distribution.downloadURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>These are for instance models that are available within Jaqpot.</t>
+  </si>
+  <si>
+    <t>Not yet relevant</t>
+  </si>
+  <si>
+    <t>These are concepts that will be added to the PINK ontology, if they do not already exist.</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>distribution.accessURL</t>
+  </si>
+  <si>
+    <t>modificationDate</t>
+  </si>
+  <si>
+    <t>creationDate</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>relevance?</t>
+  </si>
+  <si>
+    <t>reliability?</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>model.accessURL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,18 +398,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,15 +447,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -283,6 +560,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Francesca Lønstad Bleken" id="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" userId="S::francesca.l.bleken@sintef.no::47016363-1e29-4a32-968a-aee4dd0c733a" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,168 +863,288 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2025-09-19T12:23:14.01" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{3DC68221-A2F8-483A-B3B6-FE972893C5E3}">
+    <text>Internal identifier if you have one.
+This can be a unique id in the form of an IRI. Otherwise leave empty.</text>
+  </threadedComment>
+  <threadedComment ref="B1" dT="2025-09-19T11:15:20.89" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{9137136B-9BC8-471A-B200-2EA2E7A3E4AF}">
+    <text xml:space="preserve">This will eventually be a class in an ontology. For now please add a name that you feel covers what type of data this is. Can be left as the most generic dcat:dataset for now. Examples are:
+SEMimage
+CrystalStructure
+</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2025-09-19T11:30:11.18" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{5D5DF385-D5EB-48F5-A5CE-DFF6A74296CA}">
+    <text>A string of your choice.</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2025-09-19T11:31:15.60" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{D844F09D-7C07-4893-B57E-52C3F6A5D60F}">
+    <text>A sentence or two…</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2025-09-19T11:33:35.38" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{830E4230-762D-4CE3-A6F0-0FF397030CD2}">
+    <text>The URL that you can download directly if it exists. This is unique for this dataset.
+Either accessURL or accessURL are mandatory.</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2025-09-19T11:39:05.15" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{8EE7610C-E999-45F5-A9A9-3367E4AF6B18}">
+    <text>The URL from where you can access the dataset, i.e. by a query there. Several datasets can share the same accessURL.
+Either accessURL or accessURL are mandatory.</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2025-09-19T11:59:29.36" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{DD6BA14D-A867-4425-9A15-A81CC1D0A5CB}">
+    <text>One of:  “Confidential, Non_public, public, restricted, sensitive”. 
+you can add the prefix if you want, e,g,
+ http://publications.europa.eu/resource/authority/access-right/CONFIDENTIAL.
+For further information about the EU terminology: https://op.europa.eu/en/web/eu-vocabularies/concept-scheme/-/resource?uri=http://publications.europa.eu/resource/authority/access-right</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>315034971</xltc2:checksum>
+        <xltc2:hyperlink startIndex="112" length="62" url="http://publications.europa.eu/resource/authority/access-right/CONFIDENTIAL"/>
+        <xltc2:hyperlink startIndex="239" length="135" url="https://op.europa.eu/en/web/eu-vocabularies/concept-scheme/-/resource?uri=http://publications.europa.eu/resource/authority/access-right"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2025-09-19T12:07:35.88" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{79276DE3-444C-4EE2-B4DB-3C29B2EE9CD5}">
+    <text xml:space="preserve">All datasetsshouls have a license. A list of possible licenses can be found here:
+https://opensource.org/licenses-old/category
+https://creativecommons.org/share-your-work/cclicenses/
+This will become mandatory during the project. </text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3083652634</xltc2:checksum>
+        <xltc2:hyperlink startIndex="82" length="44" url="https://opensource.org/licenses-old/category"/>
+        <xltc2:hyperlink startIndex="128" length="55" url="https://creativecommons.org/share-your-work/cclicenses/"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2025-09-19T12:14:43.49" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{075E81C9-FCEC-4A30-BD32-6CD7A45A52E0}">
+    <text>Date of creation of the data. Mandatory.</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2025-09-19T12:15:43.35" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{3AD6D853-B413-4D8F-9CC8-1AC251E67C3F}">
+    <text>Date of modification of the dataset, if applicable.</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2025-09-19T12:21:33.47" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{7F6C6FB6-FC98-4A05-BE14-8935E191D0A1}">
+    <text>A version number, Typically 1.0.0</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2025-09-19T12:44:21.72" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{7D6EF6D9-DA83-4B2B-9C6F-3C06F31029A8}">
+    <text xml:space="preserve">The method used to generate this dataset. Could be and experimental setup or a software or a model or an algorithm.
+Here, it is most relevant to refer to (PINK) models that are documented in the model tab. But you can start with giving the name of the model that was used to generate this dataset. </text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2025-09-19T12:52:37.81" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{310925FA-32DC-427A-A594-2292BEE25A8D}">
+    <text>Input to the experiment/model/algorithm that generated the current dataset.
+Should refer to an actual sample/dataset or similar.</text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2025-09-19T13:20:32.55" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{19BE8BE9-4EAD-42AA-B99A-6C43EB4E0E34}">
+    <text xml:space="preserve">Comma-separated words .
+</text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2025-09-19T13:21:20.07" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{11EC8B67-483E-4E3E-9B6A-DC45A0BA5C0B}">
+    <text>One of "functionality", "safety", "environmental sustainability", "social sustainability", "costing"</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2025-09-19T12:23:14.01" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{72170D1E-BEFC-40EF-B131-07BE5D972176}">
+    <text>Internal identifier if you have one.
+This can be a unique id in the form of an IRI. Otherwise leave empty.</text>
+  </threadedComment>
+  <threadedComment ref="B2" dT="2025-09-19T11:30:11.18" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{5623D650-33C0-4B48-B342-FEF20D0FFBB6}">
+    <text>A string of your choice.</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2025-09-19T11:31:15.60" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{BFE67C0E-8C8A-4661-8A42-BEBE7E1FD400}">
+    <text>A sentence or two…</text>
+  </threadedComment>
+  <threadedComment ref="D2" dT="2025-09-19T13:31:22.38" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{04F17FF0-9455-4B82-B22A-77FAA036EBDE}">
+    <text xml:space="preserve">URL to documentation
+</text>
+  </threadedComment>
+  <threadedComment ref="I2" dT="2025-09-19T13:22:21.24" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{25EAF71E-19E8-4BB9-9D43-0E6209E6211F}">
+    <text>categorisation according to PINK tiers</text>
+  </threadedComment>
+  <threadedComment ref="M2" dT="2025-09-19T13:48:56.07" personId="{9E0B4AE6-956E-4170-8936-CDB8BD817742}" id="{4ECAC48F-403E-49AD-93CE-640C9F4E9B04}">
+    <text>Please add the type of datasets</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8ADE019-5AC4-42D9-A5BC-D2F2F0042CD9}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8ADE019-5AC4-42D9-A5BC-D2F2F0042CD9}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView zoomScale="262" zoomScaleNormal="262" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="12.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="12.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
+      <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8D4575-B0D1-4FF5-A4E7-92D87DC61342}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8D4575-B0D1-4FF5-A4E7-92D87DC61342}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -750,11 +1153,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -763,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -775,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -789,22 +1194,737 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE2533C-435F-4CB3-9C34-CA28033D474E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectLeader>
+    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocumentDate xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
+    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca4211f3-c3ae-44b0-943c-689514f61df2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
+    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
+    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
+    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectOwner>
+    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
+    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteDocumentAuthor>
+    <CorpSiteMainAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0e69e666-8806-43f8-9762-c05832ca1e73" xsi:nil="true"/>
+    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectQA>
+    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Generic document" ma:contentTypeID="0x01010031B82B69D2361148B4D8F7EC156802130800C50380A855152B43AB035925CC7F7219" ma:contentTypeVersion="50" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="267f4ff6d4ceaaacf8eb0703b391af93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8bbd4995-53b7-43e2-b62f-10947586ac31" xmlns:ns3="ca4211f3-c3ae-44b0-943c-689514f61df2" xmlns:ns4="0e69e666-8806-43f8-9762-c05832ca1e73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="070e3fd18e18188742408856b98cc539" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
+    <xsd:import namespace="ca4211f3-c3ae-44b0-943c-689514f61df2"/>
+    <xsd:import namespace="0e69e666-8806-43f8-9762-c05832ca1e73"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:CorpSiteSubTitle" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteAccess" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteClassification" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteTags" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteReportNumber" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteISBN" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteMainAuthors" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteCoAuthors" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteRecipientCompany" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteRecipientPerson" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteOurRef" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteZipAddress" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteZipContact" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteVATNumber" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteInstituteEmail" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpDocPageClassificationNbNo" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpDocClassificationEnUs" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpDocPageClassificationEnUs" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpDocClassificationNbNo" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteInstituteEnUs" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteInstitutePhone" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteDocLanguage" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpDocInstitute" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpDocVersion" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteDocumentAuthor" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteProjectQA" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteProjectOwner" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteProjectLeader" minOccurs="0"/>
+                <xsd:element ref="ns2:ArchiveStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpWorkflowFeedback" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteProjectNumber" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpSiteProjectName" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpWorkflowApproval" minOccurs="0"/>
+                <xsd:element ref="ns2:CorpDocumentDate" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8bbd4995-53b7-43e2-b62f-10947586ac31" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="CorpSiteSubTitle" ma:index="3" nillable="true" ma:displayName="Undertittel" ma:internalName="CorpSiteSubTitle">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteAccess" ma:index="4" nillable="true" ma:displayName="Lesetilgang" ma:default="Kun navngitte medlemmer" ma:format="Dropdown" ma:internalName="CorpSiteAccess">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Kun navngitte medlemmer"/>
+          <xsd:enumeration value="SINTEF"/>
+          <xsd:enumeration value="Institutt"/>
+          <xsd:enumeration value="Avdeling"/>
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteClassification" ma:index="5" nillable="true" ma:displayName="Gradering" ma:default="Åpen" ma:internalName="CorpSiteClassification">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Åpen"/>
+          <xsd:enumeration value="Fortrolig"/>
+          <xsd:enumeration value="Strengt fortrolig"/>
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteTags" ma:index="6" nillable="true" ma:displayName="Tags" ma:internalName="CorpSiteTags">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteReportNumber" ma:index="7" nillable="true" ma:displayName="Rapport nummer" ma:internalName="CorpSiteReportNumber">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteISBN" ma:index="8" nillable="true" ma:displayName="ISBN" ma:internalName="CorpSiteISBN">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteMainAuthors" ma:index="9" nillable="true" ma:displayName="Hovedforfattere" ma:internalName="CorpSiteMainAuthors">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteCoAuthors" ma:index="10" nillable="true" ma:displayName="Medforfattere" ma:internalName="CorpSiteCoAuthors">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteRecipientCompany" ma:index="11" nillable="true" ma:displayName="Mottakende selskap" ma:internalName="CorpSiteRecipientCompany">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteRecipientPerson" ma:index="12" nillable="true" ma:displayName="Mottakende person" ma:internalName="CorpSiteRecipientPerson">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteOurRef" ma:index="13" nillable="true" ma:displayName="Vår ref" ma:internalName="CorpSiteOurRef">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteZipAddress" ma:index="14" nillable="true" ma:displayName="Adresse" ma:internalName="CorpSiteZipAddress">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteZipContact" ma:index="15" nillable="true" ma:displayName="Kontakt" ma:internalName="CorpSiteZipContact">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteVATNumber" ma:index="16" nillable="true" ma:displayName="Foretaksnummer" ma:internalName="CorpSiteVATNumber">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteInstituteEmail" ma:index="17" nillable="true" ma:displayName="E-post institutt" ma:internalName="CorpSiteInstituteEmail">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpDocPageClassificationNbNo" ma:index="18" nillable="true" ma:displayName="Gradering Denne Siden" ma:default="Åpen" ma:internalName="CorpDocPageClassificationNbNo">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Åpen"/>
+          <xsd:enumeration value="Intern"/>
+          <xsd:enumeration value="Fortrolig"/>
+          <xsd:enumeration value="Strengt fortrolig"/>
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpDocClassificationEnUs" ma:index="19" nillable="true" ma:displayName="Classification" ma:default="Unrestricted" ma:internalName="CorpDocClassificationEnUs">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Unrestricted"/>
+          <xsd:enumeration value="Internal"/>
+          <xsd:enumeration value="Restricted"/>
+          <xsd:enumeration value="Confidential"/>
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpDocPageClassificationEnUs" ma:index="20" nillable="true" ma:displayName="Classification This Page" ma:default="Unrestricted" ma:internalName="CorpDocPageClassificationEnUs">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Unrestricted"/>
+          <xsd:enumeration value="Internal"/>
+          <xsd:enumeration value="Restricted"/>
+          <xsd:enumeration value="Confidential"/>
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpDocClassificationNbNo" ma:index="21" nillable="true" ma:displayName="Gradering" ma:default="Åpen" ma:internalName="CorpDocClassificationNbNo">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Åpen"/>
+          <xsd:enumeration value="Intern"/>
+          <xsd:enumeration value="Fortrolig"/>
+          <xsd:enumeration value="Strengt fortrolig"/>
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteInstituteEnUs" ma:index="22" nillable="true" ma:displayName="InstituteEng" ma:internalName="CorpSiteInstituteEnUs">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteInstitutePhone" ma:index="23" nillable="true" ma:displayName="Institutt telefon" ma:internalName="CorpSiteInstitutePhone">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteDocLanguage" ma:index="24" nillable="true" ma:displayName="Språk" ma:internalName="CorpSiteDocLanguage">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpDocInstitute" ma:index="25" nillable="true" ma:displayName="Institutt" ma:internalName="CorpDocInstitute">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpDocVersion" ma:index="26" nillable="true" ma:displayName="Versjon" ma:internalName="CorpDocVersion">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteDocumentAuthor" ma:index="27" nillable="true" ma:displayName="Hovedforfatter" ma:hidden="true" ma:internalName="CorpSiteDocumentAuthor">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="CorpSiteProjectQA" ma:index="32" nillable="true" ma:displayName="Kvalitestsansvarlig" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="CorpSiteProjectQA" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="CorpSiteProjectOwner" ma:index="33" nillable="true" ma:displayName="Prosjekteier" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="CorpSiteProjectOwner" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="CorpSiteProjectLeader" ma:index="34" nillable="true" ma:displayName="Prosjektleder" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="CorpSiteProjectLeader" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ArchiveStatus" ma:index="36" nillable="true" ma:displayName="Arkivstatus" ma:internalName="ArchiveStatus">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpWorkflowFeedback" ma:index="37" nillable="true" ma:displayName="Status kvalitetssikring" ma:internalName="CorpWorkflowFeedback">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteProjectNumber" ma:index="39" nillable="true" ma:displayName="Prosjektnummer" ma:default="" ma:internalName="CorpSiteProjectNumber">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpSiteProjectName" ma:index="40" nillable="true" ma:displayName="Prosjektnavn" ma:internalName="CorpSiteProjectName">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpWorkflowApproval" ma:index="55" nillable="true" ma:displayName="Status godkjenning" ma:internalName="CorpWorkflowApproval">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CorpDocumentDate" ma:index="56" nillable="true" ma:displayName="Dokumentdato" ma:internalName="CorpDocumentDate">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca4211f3-c3ae-44b0-943c-689514f61df2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="41" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="42" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="43" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="46" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="48" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="322a372c-f9c2-4fd8-9939-aea158435baa" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="50" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="51" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="52" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="53" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="54" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e69e666-8806-43f8-9762-c05832ca1e73" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="44" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="45" nillable="true" ma:displayName="Delingsdetaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="49" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{7e582d7f-7e37-4c1e-9fd9-9641e4b5b9c5}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0e69e666-8806-43f8-9762-c05832ca1e73">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="38" ma:displayName="Innholdstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Tittel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"SINTEF-Blank spreadsheet","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"SINTEF-Blank spreadsheet","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64918C27-FBA6-4843-958F-5948762AC648}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
+    <ds:schemaRef ds:uri="ca4211f3-c3ae-44b0-943c-689514f61df2"/>
+    <ds:schemaRef ds:uri="0e69e666-8806-43f8-9762-c05832ca1e73"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{999A1A87-289E-40FC-AF52-65CC809B96CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240C961B-7825-458A-9E80-C489E31B12F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
+    <ds:schemaRef ds:uri="ca4211f3-c3ae-44b0-943c-689514f61df2"/>
+    <ds:schemaRef ds:uri="0e69e666-8806-43f8-9762-c05832ca1e73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EEF91AC-9A48-4798-9A9B-96FF81E5CF8B}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{129FB90B-22C5-4FE6-9366-00B069FEE7D4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EEF91AC-9A48-4798-9A9B-96FF81E5CF8B}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>